--- a/log_history/Y4_B2526_Tropical_scanner1759403340940_c456674c7f9eb4fcf75c21a7005e03f9cf06fb1c2df75148046cfd49636a4822.xlsx
+++ b/log_history/Y4_B2526_Tropical_scanner1759403340940_c456674c7f9eb4fcf75c21a7005e03f9cf06fb1c2df75148046cfd49636a4822.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Tropical" sheetId="1" r:id="rId1"/>
+    <sheet name="Session" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>

--- a/log_history/Y4_B2526_Tropical_scanner1759403340940_c456674c7f9eb4fcf75c21a7005e03f9cf06fb1c2df75148046cfd49636a4822.xlsx
+++ b/log_history/Y4_B2526_Tropical_scanner1759403340940_c456674c7f9eb4fcf75c21a7005e03f9cf06fb1c2df75148046cfd49636a4822.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Session" sheetId="1" r:id="rId1"/>
+    <sheet name="Tropical" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
